--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -217,27 +217,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大卫求问上帝得应许战胜非利士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代上 14:10,14-15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战胜非利士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代上 14:8-17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>把约柜从基列耶琳迁至俄别以东；把约柜迁入耶路撒冷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>代上 13:1-14；代上 15:25-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安放约柜后献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 16:1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知拿单传耶和华的话语说大卫不可建造圣殿；拿单传耶和华对大卫子孙坐王位的应许</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 17:4-6；代上 17:7-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫求问上帝得应许战胜非利士；感恩的祷告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 14:10,14-15；代上 17:16-27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈马王进贡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 18:9-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战胜非利士；攻打并战胜非利士；攻打并战胜摩押；攻打并战胜琐巴；击杀大马士革的亚兰人；攻打并战胜以东；击败亚扪人和亚兰人；攻取亚扪的拉巴城；击杀非利士的巨人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 14:8-17；代上 18:1；代上 18:2；代上 18:3-4；代上 18:5-8；代上 18:12-13；代上 19:1-19；代上 20:1-3；代上 20:4-8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -597,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,9 +639,13 @@
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="30.625" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="30.625" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +659,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -646,8 +678,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -661,8 +697,12 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -676,8 +716,12 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -691,8 +735,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -702,8 +750,12 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -717,8 +769,12 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,8 +784,12 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -739,8 +799,12 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -754,8 +818,12 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -765,8 +833,12 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -776,8 +848,12 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -787,34 +863,50 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -822,8 +914,12 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -833,8 +929,12 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -848,8 +948,12 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -859,8 +963,12 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -868,8 +976,12 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -879,8 +991,12 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -890,8 +1006,12 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -901,8 +1021,12 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -912,8 +1036,12 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -921,23 +1049,31 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -951,8 +1087,12 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -962,8 +1102,12 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -973,19 +1117,31 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -993,8 +1149,12 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1004,19 +1164,31 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1027,15 +1199,19 @@
         <v>37</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1045,6 +1221,10 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大卫城（锡安）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>众长老照撒母耳的话膏立大卫作王</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,18 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>代上 11:4-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备建造圣殿的材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代上 14:1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>把约柜从基列耶琳迁至俄别以东；把约柜迁入耶路撒冷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,30 +209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>安放约柜后献祭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代上 16:1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先知拿单传耶和华的话语说大卫不可建造圣殿；拿单传耶和华对大卫子孙坐王位的应许</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代上 17:4-6；代上 17:7-14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大卫求问上帝得应许战胜非利士；感恩的祷告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代上 14:10,14-15；代上 17:16-27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>哈马王进贡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -262,6 +222,110 @@
   </si>
   <si>
     <t>代上 14:8-17；代上 18:1；代上 18:2；代上 18:3-4；代上 18:5-8；代上 18:12-13；代上 19:1-19；代上 20:1-3；代上 20:4-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数点以色列民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 21:1-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华降瘟疫与以色列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 21:14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知拿单传耶和华的话语说大卫不可建造圣殿；拿单传耶和华对大卫子孙坐王位的应许；先见迦得传耶和华的降灾；迦得传耶和华筑坛的命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 17:4-6；代上 17:7-14；代上 21:7-13；代上 21:18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为耶和华筑坛以止息瘟疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 21:19-27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所罗门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备建造圣殿的材料；筹备建造圣殿的材料和人力；嘱咐所罗门和众首领建造圣殿；将被圣灵感动所得的圣殿样式指示给所罗门；号召族长、首领为建造圣殿献礼物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 14:1-2；代上 22:2-5,14-16；代上 22:6-19；代上 28:11-19；代上 29:1-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫求问上帝得应许战胜非利士；感恩的祷告；为数点百姓而悔改；称颂耶和华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 14:10,14-15；代上 17:16-27；代上 21:8,17；代上 29:10-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安放约柜后献祭；瘟疫止息后在坛上献祭；为建造圣殿献礼物后献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 16:1-2；代上 21:28；代上 29:21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承（被众人膏立）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 29:22-25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希伯仑（7年）、耶路撒冷（33年）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 29:26-27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年纪老迈、日子满足而死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代上 29:28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,13 +685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,7 +721,9 @@
         <v>2</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -676,7 +742,9 @@
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -695,7 +763,9 @@
         <v>36</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -709,10 +779,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -723,16 +793,12 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -742,14 +808,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -757,15 +831,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -776,10 +848,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -791,7 +867,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -806,14 +882,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -825,12 +897,20 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -840,7 +920,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -855,7 +935,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -868,17 +948,17 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -887,17 +967,17 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -906,44 +986,44 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -955,12 +1035,20 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -968,37 +1056,41 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1013,7 +1105,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1028,62 +1120,60 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1092,14 +1182,18 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1109,7 +1203,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1124,16 +1218,12 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1141,46 +1231,46 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+    <row r="31" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1188,21 +1278,17 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="114" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1211,14 +1297,22 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1226,6 +1320,21 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>把约柜从基列耶琳迁至俄别以东；把约柜迁入耶路撒冷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>代上 13:1-14；代上 15:25-28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,6 +322,146 @@
   </si>
   <si>
     <t>代上 29:28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把约柜从基列耶琳迁至俄别以东；把约柜迁入耶路撒冷（大卫城）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将约柜从大卫城运入耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 5:2-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为百姓祝福</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 6:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩和祝福</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 6:12-42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求智慧被应许；遵行律法和子孙王位的应许</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 1:7-12；代下 7:11-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续筹备建造圣殿；开始建造圣殿；建造完成圣殿；建造圣殿和王宫共二十年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 2:1-16；代下 3:1-2；代下 5:1；代下 8:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻取哈马琐巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 8:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法老的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 8:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在会幕前献一千牺牲为祭；二万二千牛、十二万羊；按定例献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 1:6；代下 7:5；代下 8:12-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希兰送给所罗门城邑；示巴女王拜访</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 8:2；代下 9:1-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年金子666他连得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 9:13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 9:31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗波安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rehoboam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶罗波安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeroboam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所罗门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼八</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让百姓负更重的轭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 10:12-15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +541,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,10 +827,10 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,12 +861,16 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -743,12 +886,16 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -764,12 +911,16 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -779,21 +930,25 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -819,10 +974,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -836,7 +991,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -906,19 +1061,23 @@
         <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -926,8 +1085,12 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -955,10 +1118,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -974,13 +1137,17 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -993,10 +1160,10 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1044,10 +1211,10 @@
         <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1063,10 +1230,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1096,8 +1263,12 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1127,12 +1298,16 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1170,13 +1345,17 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1189,13 +1368,17 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1238,13 +1421,17 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1271,27 +1458,39 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1308,13 +1507,17 @@
         <v>37</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1328,8 +1531,12 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -462,6 +462,218 @@
   </si>
   <si>
     <t>代下 10:12-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝利未人做祭司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 11:14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为金牛犊设立祭司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 11:15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫儿子耶利摩的女儿玛哈拉、耶西儿子以利押的女儿亚比孩、押沙龙的女儿玛迦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收留利未人、遵行律例三年；背离律法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 11:17；代下 12:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神人示玛雅传耶和华禁止征战的命令；先知示玛雅传耶和华的应许不灭绝犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不立定心意寻求耶和华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 12:14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿玛（亚扪人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被埃及攻取耶路撒冷、掠夺财宝；与以色列时常征战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 11:1-4；代下 12:5-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 12:2-4,9；代下 12:15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 12:15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚比雅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abijah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗波安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基比亚人乌列的女儿米该亚（玛迦？）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 11:20,代下 13:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与以色列征战得胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 13:2-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 14:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚撒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行耶和华眼中看为善为正的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 14:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战胜来攻打的古实人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 14:9-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知亚撒利雅传预言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 15:1-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新修筑圣殿前的坛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 15:8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许多以色列人归降后献祭牛七百只、羊七千只</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 15:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打碎柱像、砍下木偶；除掉可憎之物；砍下偶像亚舍拉并捣碎烧掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 14:3；代下 15:8；代下 15:16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因祖母玛迦造了亚舍拉而贬了她的位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 15:16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除掉外邦神的邱坛；邱坛没有完全废去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 14:3,5；代下 15:17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵行律法诫命；一生诚实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 14:4；代下 15:17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -824,13 +1036,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,9 +1058,17 @@
     <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="10" max="10" width="30.625" customWidth="1"/>
     <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="30.625" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="30.625" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="30.625" customWidth="1"/>
+    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="18" max="18" width="30.625" customWidth="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,8 +1092,20 @@
         <v>104</v>
       </c>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -897,8 +1129,20 @@
         <v>105</v>
       </c>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -922,8 +1166,20 @@
         <v>106</v>
       </c>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -945,8 +1201,20 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
@@ -956,12 +1224,22 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -979,12 +1257,26 @@
       <c r="G6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -996,12 +1288,24 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1015,12 +1319,28 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1354,20 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1045,12 +1377,24 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1072,12 +1416,28 @@
       <c r="G11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1095,8 +1455,16 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1110,8 +1478,16 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1129,8 +1505,16 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1152,8 +1536,16 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1167,12 +1559,28 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1184,8 +1592,16 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1197,10 +1613,26 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1220,10 +1652,22 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1241,8 +1685,20 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1254,8 +1710,16 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1269,12 +1733,22 @@
       <c r="G22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1288,8 +1762,16 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1309,8 +1791,18 @@
         <v>108</v>
       </c>
       <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1320,12 +1812,26 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1337,8 +1843,16 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1360,8 +1874,16 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1383,8 +1905,20 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1398,8 +1932,16 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1413,8 +1955,20 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1436,8 +1990,20 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1449,8 +2015,16 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1472,8 +2046,16 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1495,8 +2077,16 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" ht="114" x14ac:dyDescent="0.2">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19" ht="114" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1518,12 +2108,32 @@
       <c r="G35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1541,6 +2151,14 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="201">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -613,22 +613,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战胜来攻打的古实人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 14:9-15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先知亚撒利雅传预言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 15:1-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重新修筑圣殿前的坛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -674,6 +658,170 @@
   </si>
   <si>
     <t>代下 14:4；代下 15:17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战胜来攻打的古实人；以色列来攻打、求助亚兰取胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 14:9-15；代下 16:1-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 15:1-7；代下 16:7-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知亚撒利雅传预言要遵行律法；先知哈拿尼责备亚撒不仰赖耶和华、预言有争战，被亚撒囚禁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐待一些人民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 16:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚上生病、不求问耶和华而死，与列祖同睡在大卫城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 16:12-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约沙法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoshaphat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚撒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚比雅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵行神的诫命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 17:4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不寻求巴力；除掉一切木偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 17:3；代下 17:6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在摩押、亚扪、米乌尼联军来进攻时祷告求帮助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 20:3-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使列国恐惧、不敢争战；犹大和以色列联军攻打基列的拉末失败、以色列王亚哈阵亡；摩押、亚扪、米乌尼联合来进攻；耶和华帮助犹大战胜摩押、亚扪、西珥山人联军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 17:10；代下 18:28-34；代下 20:1-2；代下 20:23-25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿苏巴（示利希的女儿）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行他祖大卫初行的道、寻求他父亲的神；效法他父亚撒所行的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 17:3-4；代下 20:32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除掉一切邱坛；邱坛还没有废去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 17:6；代下 20:33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非利士送礼物、纳贡银，阿拉伯送羊；与以色列王亚哈结亲；与以色列联合准备进攻基列的拉末；与以色列王亚哈谢交好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 17:11；代下 18:1；代下 18:2-3；代下 20:35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知米该雅预言犹大和以色列联军失败、被下在监里；先知哈拿尼责备约沙法帮助以色列王亚哈、预言耶和华的愤怒；利未人雅哈悉预言争战胜利；以利以谢预言犹大和以色列造船去他施会失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 18:4-27；代下 19:2-3；代下 20:14-17；代下 20:36-37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约沙法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1039,10 +1187,10 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,9 +1248,13 @@
         <v>143</v>
       </c>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1137,9 +1289,13 @@
         <v>144</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1174,9 +1330,13 @@
         <v>132</v>
       </c>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1209,9 +1369,13 @@
         <v>133</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1234,7 +1398,9 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1271,9 +1437,13 @@
         <v>145</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1298,9 +1468,13 @@
         <v>136</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1330,17 +1504,21 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1362,8 +1540,12 @@
       <c r="O9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
@@ -1394,7 +1576,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1430,10 +1612,18 @@
       <c r="M11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
@@ -1540,12 +1730,16 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1570,13 +1764,17 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
@@ -1622,13 +1820,17 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
@@ -1688,10 +1890,10 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1795,11 +1997,17 @@
         <v>135</v>
       </c>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
@@ -1826,7 +2034,9 @@
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -1908,10 +2118,10 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -1958,13 +2168,17 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
@@ -1993,10 +2207,10 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2048,14 +2262,18 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
+      <c r="N33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2081,8 +2299,12 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="P34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
@@ -2123,13 +2345,17 @@
         <v>140</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="243">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -822,6 +822,174 @@
   </si>
   <si>
     <t>约沙法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死自己的众弟兄和几个首领</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行以色列诸王的道、与亚哈家一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以东人背叛犹大；立拿人背叛犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:8-10；代下 21:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑邱坛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行邪淫、诱惑犹大人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知以利亚达写信预言耶和华降大灾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:12-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非利士人攻击犹大、掳掠王宫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:16-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华使约兰肠子患病而死，葬在大卫城、但不在列王的坟墓里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 21:18-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈谢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahaziah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚他利雅（暗利的孙女）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:3-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行亚哈家的道，亚哈谢的母亲为其主谋行恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与以色列王约兰联合进攻亚兰、约兰被打伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被宁示的孙子耶户杀死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:7-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚他利雅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Athaliah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为亚哈谢的母亲、篡位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:10-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剿灭犹大王室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1184,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1214,9 +1382,15 @@
     <col min="17" max="17" width="15.625" customWidth="1"/>
     <col min="18" max="18" width="30.625" customWidth="1"/>
     <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="20" max="20" width="30.625" customWidth="1"/>
+    <col min="21" max="21" width="15.625" customWidth="1"/>
+    <col min="22" max="22" width="30.625" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="30.625" customWidth="1"/>
+    <col min="25" max="25" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,8 +1430,18 @@
         <v>197</v>
       </c>
       <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1481,18 @@
         <v>198</v>
       </c>
       <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1338,8 +1532,18 @@
         <v>171</v>
       </c>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1377,8 +1581,18 @@
         <v>172</v>
       </c>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1402,10 +1616,20 @@
         <v>184</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1445,8 +1669,20 @@
         <v>199</v>
       </c>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1476,10 +1712,22 @@
         <v>185</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="T7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1517,8 +1765,14 @@
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1548,8 +1802,14 @@
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1573,10 +1833,24 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="R10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1624,10 +1898,24 @@
       <c r="Q11" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="R11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1653,8 +1941,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1676,8 +1970,14 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +2003,14 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1738,8 +2044,14 @@
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1775,10 +2087,20 @@
       <c r="Q16" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1798,8 +2120,14 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1833,8 +2161,14 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1866,10 +2200,20 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1897,10 +2241,24 @@
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1920,8 +2278,14 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1947,10 +2311,18 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1972,8 +2344,14 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2009,8 +2387,16 @@
         <v>200</v>
       </c>
       <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="T24" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2040,8 +2426,16 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2061,8 +2455,14 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+    </row>
+    <row r="27" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2092,8 +2492,14 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2127,8 +2533,14 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2150,8 +2562,14 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2179,10 +2597,20 @@
       <c r="Q30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="R30" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2216,8 +2644,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2237,8 +2671,14 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2272,8 +2712,14 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2305,10 +2751,20 @@
       <c r="Q34" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="R34" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25" ht="114" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2356,10 +2812,24 @@
       <c r="Q35" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R35" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2385,6 +2855,12 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="298">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -893,27 +893,223 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>代下 21:18-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈谢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahaziah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚他利雅（暗利的孙女）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:3-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行亚哈家的道，亚哈谢的母亲为其主谋行恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与以色列王约兰联合进攻亚兰、约兰被打伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被宁示的孙子耶户杀死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:7-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚他利雅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Athaliah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为亚哈谢的母亲、篡位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:10-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剿灭犹大王室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 22:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约阿施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 23:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被耶何耶大杀死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 23:14-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西比亚（别是巴人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈谢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 24:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶何耶大在世时，行耶和华眼中看为正的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶何耶大派人看守耶和华的殿、防止不洁净的人出入；重修耶和华的殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 23:18-19；代下 24:4-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶何耶大死后离弃神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 24:17-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶何耶大拆毁巴力庙、打碎坛和像、杀死巴力的祭司；侍奉亚舍拉和偶像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 23:17；代下 24:18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死耶何耶大的儿子撒迦利亚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 24:20-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神遣先知警戒，约阿施不听</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 24:19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚兰攻打、首领被杀、财货被掳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 24:23-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 24:25-26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>耶和华使约兰肠子患病而死，葬在大卫城、但不在列王的坟墓里</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>代下 21:18-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚哈谢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ahaziah</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>犹大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶路撒冷</t>
+    <t>患重病、被臣仆背叛杀死，葬在大卫城、但不在列王的坟墓里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚玛谢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amaziah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承（被祭司耶何耶大膏立）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -921,75 +1117,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>42岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚他利雅（暗利的孙女）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>约兰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 22:3-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行亚哈家的道，亚哈谢的母亲为其主谋行恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与以色列王约兰联合进攻亚兰、约兰被打伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 22:5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被宁示的孙子耶户杀死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 22:7-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚他利雅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Athaliah</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶路撒冷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为亚哈谢的母亲、篡位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 22:10-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剿灭犹大王室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 22:10</t>
+    <t>25岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约耶但（耶路撒冷人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约阿施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行耶和华眼中看为正的事，只是心不专诚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 25:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死背叛约阿施的臣仆、但没有杀死臣仆的儿子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 25:3-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将西珥的神像了立为神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 25:14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神人警告亚玛谢不要联合以色列人一起攻打以东，亚玛谢听从；先知劝诫亚玛谢不要拜西珥的神像，亚玛谢不听</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 25:7-10；代下 25:15-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打以东（西珥）得胜；攻打以色列失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 25:5-13；代下 25:17-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叛党杀死在拉吉、尸首被人带回葬在列祖的坟地里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 25:27-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌西雅（亚撒利雅）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzziah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶可利雅（耶路撒冷人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚玛谢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 26:4-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他父亚玛谢一切所行的，撒迦利亚在世时定意寻求神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1352,13 +1572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1388,9 +1608,19 @@
     <col min="23" max="23" width="15.625" customWidth="1"/>
     <col min="24" max="24" width="30.625" customWidth="1"/>
     <col min="25" max="25" width="15.625" customWidth="1"/>
+    <col min="26" max="26" width="30.625" customWidth="1"/>
+    <col min="27" max="27" width="15.625" customWidth="1"/>
+    <col min="28" max="28" width="30.625" customWidth="1"/>
+    <col min="29" max="29" width="15.625" customWidth="1"/>
+    <col min="30" max="30" width="30.625" customWidth="1"/>
+    <col min="31" max="31" width="15.625" customWidth="1"/>
+    <col min="32" max="32" width="30.625" customWidth="1"/>
+    <col min="33" max="33" width="15.625" customWidth="1"/>
+    <col min="34" max="34" width="30.625" customWidth="1"/>
+    <col min="35" max="35" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,17 +1661,33 @@
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1482,17 +1728,33 @@
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1533,17 +1795,33 @@
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="X3" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="Y3" s="4"/>
+      <c r="Z3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1582,17 +1860,33 @@
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1621,15 +1915,31 @@
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="X5" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1670,19 +1980,37 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="X6" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1717,17 +2045,33 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="X7" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1771,8 +2115,18 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1806,10 +2160,32 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="X9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1840,17 +2216,31 @@
         <v>207</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="X10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1899,23 +2289,45 @@
         <v>196</v>
       </c>
       <c r="R11" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="T11" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
+      <c r="V11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1947,8 +2359,18 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1976,8 +2398,18 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2009,8 +2441,18 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2050,8 +2492,18 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2097,10 +2549,28 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="X16" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2126,8 +2596,18 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2165,10 +2645,28 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="X18" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2210,10 +2708,24 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
+      <c r="X19" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2250,15 +2762,29 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="W20" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
     </row>
-    <row r="21" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2284,8 +2810,18 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2321,8 +2857,18 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2350,8 +2896,18 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2388,15 +2944,28 @@
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="X24" t="s">
+        <v>252</v>
+      </c>
       <c r="Y24" s="4"/>
+      <c r="Z24" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA24" s="4"/>
+      <c r="AB24" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AI24" s="4"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2427,15 +2996,31 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
+      <c r="X25" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="Y25" s="4"/>
+      <c r="Z25" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
     </row>
-    <row r="26" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2461,8 +3046,18 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2498,8 +3093,18 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
     </row>
-    <row r="28" spans="1:25" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2537,10 +3142,24 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="X28" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2568,8 +3187,18 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2609,8 +3238,18 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
     </row>
-    <row r="31" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2650,8 +3289,18 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
     </row>
-    <row r="32" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2677,8 +3326,18 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2718,8 +3377,18 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
     </row>
-    <row r="34" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2763,8 +3432,18 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
     </row>
-    <row r="35" spans="1:25" ht="114" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="114" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2819,17 +3498,35 @@
         <v>217</v>
       </c>
       <c r="T35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U35" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
+      <c r="X35" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2861,6 +3558,16 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Chronicles" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="370">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1210,6 +1210,294 @@
   </si>
   <si>
     <t>效法他父亚玛谢一切所行的，撒迦利亚在世时定意寻求神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战胜非利士人；攻击阿拉伯人和米乌尼人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 26:6；代下 26:7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚扪人进贡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 26:8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 26:16-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 26:23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因干犯耶和华长大麻风而死、与列祖同睡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jotham</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约坦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌西雅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路沙（撒督的女儿）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进圣殿烧香被惩罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行事邪僻；因骄傲而进圣殿烧香，耶和华使他长大麻风至死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 26:16；代下 26:16-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百姓还行邪僻的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 27:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不入耶和华的殿；建立圣殿的上门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 27:2；代下 27:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与亚扪打仗并战胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 27:5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚扪人进贡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他父乌西雅一切所行的；在耶和华面前行正道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 27:2；代下 27:6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 27:9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahaz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不像他祖大卫、却行以色列诸王的道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在欣嫩子谷烧香、用火焚烧他的儿女、行外邦人可憎的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知俄德劝诫以色列释放被掳的犹大人，以色列人听从</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:9-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚兰王打败、百姓被掳；被以色列王杀戮、百姓被掳；被以东攻打掳掠；被非利士人侵占城池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:5；代下 28:5-8；代下 28:17；代下 28:18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈斯向亚述王求援，反被欺凌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:16,20-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造巴力的像；祭祀击败犹大的大马士革的神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:2；代下 28:22-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏圣殿的器皿、封锁圣殿的门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邱坛上、山冈上、各青翠树下献祭烧香；建立邱坛、与别神烧香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:4；代下 28:25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在耶路撒冷、但不在诸王的坟墓中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 28:27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hezekiah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚比雅（撒迦利雅的女儿）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他祖大卫一切所行的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 29:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重开圣殿的门、重修修理并洁净圣殿；重新预备圣殿的器皿；重新在圣殿献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 29:3-17；代下 29:18-19；代下 29:20-36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家为犹大献赎罪祭，有七只公牛、七只公羊、七只羊羔、七只公山羊；希西家号召会众献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 29:20-30；代下 29:31-36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>号召犹大人和以色列人一起守逾越节；守除酵节和逾越节；再守节七日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 30:1-12；代下 30:13-22；代下 30:23-27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1574,53 +1862,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="30.625" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="30.625" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="30.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="30.625" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="30.625" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="30.625" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
-    <col min="18" max="18" width="30.625" customWidth="1"/>
-    <col min="19" max="19" width="15.625" customWidth="1"/>
-    <col min="20" max="20" width="30.625" customWidth="1"/>
-    <col min="21" max="21" width="15.625" customWidth="1"/>
-    <col min="22" max="22" width="30.625" customWidth="1"/>
-    <col min="23" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="30.625" customWidth="1"/>
-    <col min="25" max="25" width="15.625" customWidth="1"/>
-    <col min="26" max="26" width="30.625" customWidth="1"/>
-    <col min="27" max="27" width="15.625" customWidth="1"/>
-    <col min="28" max="28" width="30.625" customWidth="1"/>
-    <col min="29" max="29" width="15.625" customWidth="1"/>
-    <col min="30" max="30" width="30.625" customWidth="1"/>
-    <col min="31" max="31" width="15.625" customWidth="1"/>
-    <col min="32" max="32" width="30.625" customWidth="1"/>
-    <col min="33" max="33" width="15.625" customWidth="1"/>
-    <col min="34" max="34" width="30.625" customWidth="1"/>
-    <col min="35" max="35" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="30.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="30.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="30.6640625" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" customWidth="1"/>
+    <col min="32" max="32" width="30.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" customWidth="1"/>
+    <col min="34" max="34" width="30.6640625" customWidth="1"/>
+    <col min="35" max="35" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,14 +1968,20 @@
         <v>290</v>
       </c>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
+      <c r="AD1" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
+      <c r="AH1" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1747,14 +2041,20 @@
         <v>291</v>
       </c>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AF2" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
+      <c r="AH2" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="AI2" s="3"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1814,14 +2114,20 @@
         <v>247</v>
       </c>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
+      <c r="AD3" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
+      <c r="AF3" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
+      <c r="AH3" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="AI3" s="4"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1879,14 +2185,20 @@
         <v>248</v>
       </c>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
+      <c r="AD4" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
+      <c r="AF4" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="AH4" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="AI4" s="4"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1932,14 +2244,20 @@
         <v>292</v>
       </c>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
+      <c r="AD5" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
+      <c r="AF5" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="AH5" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="AI5" s="4"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2003,14 +2321,20 @@
         <v>273</v>
       </c>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
+      <c r="AD6" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
+      <c r="AF6" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
+      <c r="AH6" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="AI6" s="4"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2064,14 +2388,20 @@
         <v>293</v>
       </c>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+      <c r="AD7" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
+      <c r="AF7" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
+      <c r="AH7" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="AI7" s="4"/>
     </row>
-    <row r="8" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2456,7 @@
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
     </row>
-    <row r="9" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2178,14 +2508,22 @@
       <c r="AC9" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
+      <c r="AD9" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
+      <c r="AH9" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2235,12 +2573,16 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
+      <c r="AF10" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
     </row>
-    <row r="11" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -2318,16 +2660,28 @@
       <c r="AA11" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="AB11" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
     </row>
-    <row r="12" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2370,7 +2724,7 @@
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2763,7 @@
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2452,7 +2806,7 @@
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
     </row>
-    <row r="15" spans="1:35" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2503,7 +2857,7 @@
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
     </row>
-    <row r="16" spans="1:35" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2565,12 +2919,16 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
+      <c r="AF16" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2607,7 +2965,7 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2661,12 +3019,16 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
+      <c r="AF18" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2716,16 +3078,28 @@
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
+      <c r="AB19" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
     </row>
-    <row r="20" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2781,10 +3155,14 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
+      <c r="AH20" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2821,7 +3199,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="1:35" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2868,7 +3246,7 @@
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2907,7 +3285,7 @@
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2961,11 +3339,20 @@
         <v>295</v>
       </c>
       <c r="AC24" s="4"/>
+      <c r="AD24" t="s">
+        <v>309</v>
+      </c>
       <c r="AE24" s="4"/>
+      <c r="AF24" t="s">
+        <v>306</v>
+      </c>
       <c r="AG24" s="4"/>
+      <c r="AH24" t="s">
+        <v>360</v>
+      </c>
       <c r="AI24" s="4"/>
     </row>
-    <row r="25" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3013,14 +3400,18 @@
         <v>294</v>
       </c>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
+      <c r="AD25" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
+      <c r="AH25" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="AI25" s="4"/>
     </row>
-    <row r="26" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3057,7 +3448,7 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3104,7 +3495,7 @@
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
     </row>
-    <row r="28" spans="1:35" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3150,16 +3541,32 @@
       </c>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
+      <c r="AB28" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE28" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF28" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG28" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3605,7 @@
       <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
     </row>
-    <row r="30" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3244,12 +3651,16 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
+      <c r="AF30" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
     </row>
-    <row r="31" spans="1:35" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3297,10 +3708,14 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
+      <c r="AH31" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI31" s="4" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3337,7 +3752,7 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -3388,7 +3803,7 @@
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
     </row>
-    <row r="34" spans="1:35" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -3434,16 +3849,28 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
+      <c r="AB34" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC34" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD34" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE34" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF34" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG34" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
     </row>
-    <row r="35" spans="1:35" ht="114" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -3517,16 +3944,28 @@
       <c r="AA35" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
+      <c r="AB35" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE35" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF35" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="503">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1469,22 +1469,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>效法他祖大卫一切所行的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 29:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重开圣殿的门、重修修理并洁净圣殿；重新预备圣殿的器皿；重新在圣殿献祭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 29:3-17；代下 29:18-19；代下 29:20-36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>希西家为犹大献赎罪祭，有七只公牛、七只公羊、七只羊羔、七只公山羊；希西家号召会众献祭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1498,6 +1482,554 @@
   </si>
   <si>
     <t>代下 30:1-12；代下 30:13-22；代下 30:23-27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打碎柱像、砍断木偶，将遍地的祭坛和邱坛拆毁净尽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 31:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将遍地的邱坛拆毁净尽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 31:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重开圣殿的门、重修修理并洁净圣殿；重新预备圣殿的器皿；重新在圣殿献祭；在圣殿内侍奉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 29:3-17；代下 29:18-19；代下 29:20-36；代下 31:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他祖大卫一切所行的；行耶和华眼中看为善为正为忠的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 29:2；代下 31:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽心寻求神、遵律法守诫命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 31:21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家以耶和华同在鼓励百姓不要畏惧亚述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 32:6-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家和先知以赛亚一起为亚述的攻打而向耶和华祷告、耶和华派使者杀败亚述军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 32:20-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚述入侵；耶和华派使者杀败亚述军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 32:1；代下 32:21-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家快病死时祷告，被神应允</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 32:24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因心里骄傲而没有照恩典报答耶和华；巴比伦的使者来访问时，神离开希西家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 32:25；代下 32:31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫子孙的高陵上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 32:33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛拿西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manasseh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法外邦人行可憎的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:4-5；代下 33:7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在圣殿中筑坛；在圣殿内雕刻偶像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使儿女经火、又观兆、用法术、行邪术、立交鬼的和行巫术的；引诱百姓行恶比列国更甚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:6；代下 33:9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚述攻打、玛拿西被掳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:12-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为巴力筑坛、做木偶、敬拜侍奉天上的万象；在圣殿内雕刻偶像；除掉外邦的偶像和祭坛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:3；代下 33:7；代下 33:15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重修耶和华的祭坛并献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新建筑邱坛；百姓在邱坛上献祭给耶和华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:3；代下 33:17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡、葬在自己的宫院里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭祀玛拿西所雕刻的偶像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛拿西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被掳后求告耶和华并自卑、耶和华应允并使他重回耶路撒冷并坐王位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他父玛拿西所行的、却不像玛拿西自卑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:22-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被臣仆背叛杀害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约西亚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josiah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承（亚们被杀后，约西亚被国民拥立）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 33:25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他祖大卫所行的、不偏左右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 34:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除掉邱坛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 34:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理圣殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 34:8-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约西亚将律法书念给百姓听、并立约要遵行律法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 34:29-32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以色列遍地拆掉巴力的坛、除掉各样的偶像；毁掉一切可憎之物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 34:3-7；代下 34:33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新发现律法书；守逾越节和除酵节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 34:14-18；代下 35:1-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为逾越节献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 35:7-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃及攻打迦基米施、约西亚去抵挡，神藉埃及王劝约西亚不要参战、约西亚不听从，约西亚被弓箭射死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 35:20-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与埃及征战时被弓箭射死、葬在列祖的坟墓里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 35:23-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女先知户勒大传耶和华的应允，约西亚必平安归到坟墓、不亲眼见灾祸；耶利米为约西亚作哀歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 34:22-28；代下 35:25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoahaz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约哈斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被埃及王废去王位并带回埃及</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:3-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoiakim（Eliakim）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约雅敬（原名以利雅敬）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约哈斯的哥哥，被埃及王所立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约西亚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行耶和华眼中看为恶的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被巴比伦攻打、约雅敬和圣殿的器皿被掳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:6-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被巴比伦王掳去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约雅斤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoiachin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约雅敬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月10天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西底家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被巴比伦王掳去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约雅斤的叔叔，被巴比伦王所立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zedekiah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣殿器皿被巴比伦所掳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法外邦人行可憎的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知耶利米劝诫西底家、西底家不听从；耶和华派使者警戒百姓、百姓藐视讥诮先知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:12；代下 36:15-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:17-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被迦勒底攻打、耶路撒冷陷落、百姓被杀被掳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>污秽圣殿；圣殿的器皿和财宝被掳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代下 36:14；代下 36:18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1860,55 +2392,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
+      <selection pane="bottomRight" activeCell="AW14" sqref="AW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="30.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="30.6640625" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="30.6640625" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" customWidth="1"/>
-    <col min="32" max="32" width="30.6640625" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" customWidth="1"/>
-    <col min="34" max="34" width="30.6640625" customWidth="1"/>
-    <col min="35" max="35" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="30.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="30.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" customWidth="1"/>
+    <col min="18" max="18" width="30.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" customWidth="1"/>
+    <col min="20" max="20" width="30.77734375" customWidth="1"/>
+    <col min="21" max="21" width="15.77734375" customWidth="1"/>
+    <col min="22" max="22" width="30.77734375" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" customWidth="1"/>
+    <col min="24" max="24" width="30.77734375" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" customWidth="1"/>
+    <col min="26" max="26" width="30.77734375" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" customWidth="1"/>
+    <col min="28" max="28" width="30.77734375" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" customWidth="1"/>
+    <col min="30" max="30" width="30.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.77734375" customWidth="1"/>
+    <col min="32" max="32" width="30.77734375" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" customWidth="1"/>
+    <col min="34" max="34" width="30.77734375" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" customWidth="1"/>
+    <col min="36" max="36" width="30.77734375" customWidth="1"/>
+    <col min="37" max="37" width="15.77734375" customWidth="1"/>
+    <col min="38" max="38" width="30.77734375" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" customWidth="1"/>
+    <col min="40" max="40" width="30.77734375" customWidth="1"/>
+    <col min="41" max="41" width="15.77734375" customWidth="1"/>
+    <col min="42" max="42" width="30.77734375" customWidth="1"/>
+    <col min="43" max="43" width="15.77734375" customWidth="1"/>
+    <col min="44" max="44" width="30.77734375" customWidth="1"/>
+    <col min="45" max="45" width="15.77734375" customWidth="1"/>
+    <col min="46" max="46" width="30.77734375" customWidth="1"/>
+    <col min="47" max="47" width="15.77734375" customWidth="1"/>
+    <col min="48" max="48" width="30.77734375" customWidth="1"/>
+    <col min="49" max="49" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1980,8 +2526,36 @@
         <v>354</v>
       </c>
       <c r="AI1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AW1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2627,36 @@
         <v>353</v>
       </c>
       <c r="AI2" s="3"/>
+      <c r="AJ2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="AW2" s="3"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2126,8 +2728,36 @@
         <v>355</v>
       </c>
       <c r="AI3" s="4"/>
+      <c r="AJ3" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AW3" s="4"/>
     </row>
-    <row r="4" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2197,8 +2827,36 @@
         <v>356</v>
       </c>
       <c r="AI4" s="4"/>
+      <c r="AJ4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AW4" s="4"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
@@ -2256,8 +2914,36 @@
         <v>357</v>
       </c>
       <c r="AI5" s="4"/>
+      <c r="AJ5" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK5" s="4"/>
+      <c r="AL5" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AW5" s="4"/>
     </row>
-    <row r="6" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2333,8 +3019,42 @@
         <v>359</v>
       </c>
       <c r="AI6" s="4"/>
+      <c r="AJ6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2400,8 +3120,36 @@
         <v>358</v>
       </c>
       <c r="AI7" s="4"/>
+      <c r="AJ7" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AW7" s="4"/>
     </row>
-    <row r="8" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2453,10 +3201,28 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
+      <c r="AH8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
     </row>
-    <row r="9" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2517,13 +3283,31 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>363</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
     </row>
-    <row r="10" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2581,8 +3365,42 @@
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
+      <c r="AJ10" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -2678,10 +3496,52 @@
       <c r="AG11" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AH11" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
     </row>
-    <row r="12" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2723,8 +3583,22 @@
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +3636,22 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2805,8 +3693,22 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
     </row>
-    <row r="15" spans="1:35" ht="69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2854,10 +3756,32 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="AH15" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
     </row>
-    <row r="16" spans="1:35" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2925,10 +3849,36 @@
       <c r="AG16" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
+      <c r="AH16" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AW16" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2964,8 +3914,22 @@
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
     </row>
-    <row r="18" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3025,10 +3989,40 @@
       <c r="AG18" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
+      <c r="AH18" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="AO18" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
     </row>
-    <row r="19" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3096,10 +4090,36 @@
       <c r="AG19" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
+      <c r="AH19" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AW19" s="4" t="s">
+        <v>495</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3156,13 +4176,31 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>369</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO20" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
     </row>
-    <row r="21" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3198,8 +4236,22 @@
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
     </row>
-    <row r="22" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3245,8 +4297,22 @@
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3284,8 +4350,22 @@
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -3351,8 +4431,30 @@
         <v>360</v>
       </c>
       <c r="AI24" s="4"/>
+      <c r="AJ24" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK24" s="4"/>
+      <c r="AL24" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM24" s="4"/>
+      <c r="AN24" t="s">
+        <v>429</v>
+      </c>
+      <c r="AO24" s="4"/>
+      <c r="AP24" t="s">
+        <v>465</v>
+      </c>
+      <c r="AQ24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU24" s="4"/>
+      <c r="AW24" s="4"/>
     </row>
-    <row r="25" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3410,8 +4512,22 @@
         <v>361</v>
       </c>
       <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
     </row>
-    <row r="26" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3447,8 +4563,22 @@
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
     </row>
-    <row r="27" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3494,8 +4624,22 @@
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
     </row>
-    <row r="28" spans="1:35" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" ht="69" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3560,13 +4704,47 @@
         <v>348</v>
       </c>
       <c r="AH28" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK28" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO28" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AS28" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="AT28" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AU28" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AV28" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="AW28" s="4" t="s">
+        <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3604,8 +4782,22 @@
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
     </row>
-    <row r="30" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3657,10 +4849,36 @@
       <c r="AG30" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
+      <c r="AH30" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AK30" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO30" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
     </row>
-    <row r="31" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3709,13 +4927,35 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>367</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK31" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AO31" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
     </row>
-    <row r="32" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3751,8 +4991,22 @@
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -3800,10 +5054,32 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
+      <c r="AH33" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI33" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO33" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
     </row>
-    <row r="34" spans="1:35" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -3869,8 +5145,22 @@
       </c>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
     </row>
-    <row r="35" spans="1:35" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -3962,10 +5252,44 @@
       <c r="AG35" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
+      <c r="AH35" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI35" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AK35" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AO35" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AS35" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AW35" s="4" t="s">
+        <v>499</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -4007,6 +5331,20 @@
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Chronicles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="500">
   <si>
     <t>名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>财富</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>以色列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -402,14 +398,6 @@
   </si>
   <si>
     <t>代下 8:2；代下 9:1-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年金子666他连得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代下 9:13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2088,7 +2076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2109,9 +2097,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2392,13 +2377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW36"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW14" sqref="AW14"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2467,91 +2452,91 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AW1" s="1"/>
     </row>
@@ -2568,91 +2553,91 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AU2" s="3"/>
       <c r="AV2" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AW2" s="3"/>
     </row>
@@ -2661,99 +2646,99 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AS3" s="4"/>
       <c r="AT3" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AW3" s="4"/>
     </row>
@@ -2764,101 +2749,101 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AS4" s="4"/>
       <c r="AT4" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AW4" s="4"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2867,7 +2852,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2877,69 +2862,69 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AK5" s="4"/>
       <c r="AL5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AW5" s="4"/>
     </row>
@@ -2950,108 +2935,108 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AU6" s="4"/>
       <c r="AV6" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -3061,91 +3046,91 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AW7" s="4"/>
     </row>
@@ -3154,36 +3139,36 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -3202,10 +3187,10 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
@@ -3239,16 +3224,16 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -3257,46 +3242,46 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -3318,10 +3303,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -3332,24 +3317,24 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
@@ -3358,46 +3343,46 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AL10" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AM10" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="27.6" x14ac:dyDescent="0.25">
@@ -3405,138 +3390,138 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
@@ -3550,10 +3535,10 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -3658,10 +3643,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3715,16 +3700,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -3735,10 +3720,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -3757,16 +3742,16 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -3788,82 +3773,82 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -3872,10 +3857,10 @@
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3942,24 +3927,24 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -3968,50 +3953,50 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AM18" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
@@ -4027,26 +4012,26 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -4055,52 +4040,52 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE19" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AC19" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="AF19" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AJ19" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
@@ -4113,10 +4098,10 @@
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:49" ht="41.4" x14ac:dyDescent="0.25">
@@ -4126,10 +4111,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -4140,34 +4125,34 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -4176,20 +4161,20 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
       <c r="AN20" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -4260,13 +4245,13 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -4278,7 +4263,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -4374,82 +4359,82 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AA24" s="4"/>
       <c r="AB24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AC24" s="4"/>
       <c r="AD24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG24" s="4"/>
       <c r="AH24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AI24" s="4"/>
       <c r="AJ24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AK24" s="4"/>
       <c r="AL24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AM24" s="4"/>
       <c r="AN24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO24" s="4"/>
       <c r="AP24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AQ24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AU24" s="4"/>
       <c r="AW24" s="4"/>
@@ -4465,51 +4450,51 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
@@ -4585,16 +4570,16 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -4646,16 +4631,16 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -4664,10 +4649,10 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -4678,70 +4663,70 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AH28" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AJ28" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AK28" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
       <c r="AN28" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AS28" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AT28" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AU28" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
@@ -4814,22 +4799,22 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -4844,30 +4829,30 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AH30" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AJ30" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AK30" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
       <c r="AN30" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4885,16 +4870,16 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -4903,10 +4888,10 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -4927,24 +4912,24 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AJ31" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AK31" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
       <c r="AN31" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AO31" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -5015,26 +5000,26 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -5055,20 +5040,20 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
       <c r="AN33" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
@@ -5086,16 +5071,16 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -5106,16 +5091,16 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -5126,22 +5111,22 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
@@ -5165,186 +5150,129 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AG35" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AH35" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AI35" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AJ35" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AK35" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
       <c r="AN35" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AO35" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AS35" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AT35" s="4"/>
       <c r="AU35" s="4"/>
       <c r="AV35" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AW35" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
+        <v>496</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
